--- a/data/trans_camb/P17_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>3.186099919934213</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-3.595580100437016</v>
+        <v>-3.59558010043702</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.005842782302325598</v>
+        <v>-0.4778109283561855</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.424420911998475</v>
+        <v>-1.678430954239077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.064697385097391</v>
+        <v>-5.772892686884052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.756908177655806</v>
+        <v>-2.582024132231455</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.320556669709775</v>
+        <v>-1.828450356032236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.79644738882174</v>
+        <v>-12.62838906150031</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1697041752062415</v>
+        <v>-0.2988948232784476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2146958923766989</v>
+        <v>-0.06045584447047742</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.18630575461815</v>
+        <v>-7.481493707017959</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.912118634839027</v>
+        <v>8.048276657303829</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.808797284909537</v>
+        <v>6.866596200926955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.147170392457387</v>
+        <v>5.435481430051828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.464963615267632</v>
+        <v>7.953353775406057</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.330072941958363</v>
+        <v>9.658690912236032</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1649674077717145</v>
+        <v>-0.2178866437219794</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.354514474307575</v>
+        <v>6.430498013799128</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.672409867605729</v>
+        <v>6.362797831794738</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.126472394521674</v>
+        <v>0.5405553159533669</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2289121928286231</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2583321760037561</v>
+        <v>-0.2583321760037564</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01380807677449407</v>
+        <v>-0.04187730507022915</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1330151687789485</v>
+        <v>-0.1546869372595431</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5728454447898287</v>
+        <v>-0.5145617210169816</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1316075598091544</v>
+        <v>-0.1138708367610073</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06395405729991359</v>
+        <v>-0.09552542403969332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5925148074831146</v>
+        <v>-0.6252279433073837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01568781877976419</v>
+        <v>-0.02697818311091484</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01221368177921073</v>
+        <v>-0.005777999545503905</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4778708588983438</v>
+        <v>-0.5031595057074226</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9671859679111968</v>
+        <v>0.9881019879412724</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8116731747953545</v>
+        <v>0.8454395992241147</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6321157097101278</v>
+        <v>0.6702430847888883</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4686689648061311</v>
+        <v>0.4909868874504937</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6071308049035857</v>
+        <v>0.609967923568446</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03816594785581146</v>
+        <v>-0.0105438775573906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5134005195798913</v>
+        <v>0.5176633977553484</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5351630988489539</v>
+        <v>0.5170624265234005</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.09965504915189016</v>
+        <v>0.05645840937757709</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.67425546568338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-10.47019661498529</v>
+        <v>-10.4701966149853</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.612799636291882</v>
@@ -869,7 +869,7 @@
         <v>-6.592161771664406</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-9.157173281313375</v>
+        <v>-9.15717328131338</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.23537751510068</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.77977270102431</v>
+        <v>-1.483596782110161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.155412286563</v>
+        <v>-3.46057799235156</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.86995158472976</v>
+        <v>-15.67128588994784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1812443644025229</v>
+        <v>0.3437032661205584</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.00343979766778</v>
+        <v>-11.9505633068697</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.57199358456747</v>
+        <v>-14.4032957558145</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4998168146502631</v>
+        <v>0.9328158741441865</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.735029368927488</v>
+        <v>-5.874624455591745</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-12.49946322839519</v>
+        <v>-13.00288585838875</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.197918028026115</v>
+        <v>7.226909306494458</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.689620897237972</v>
+        <v>6.350076551582381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.435167197935942</v>
+        <v>-5.07937129452183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.23933792698877</v>
+        <v>11.68749784089475</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.161933901679789</v>
+        <v>-1.498471705803134</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.848982744001051</v>
+        <v>-2.917157156880242</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.710735363134119</v>
+        <v>7.974688941228774</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.395255660250745</v>
+        <v>1.492929971353828</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.52380517918158</v>
+        <v>-4.828753445880037</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.07221665172419833</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4516171862217258</v>
+        <v>-0.4516171862217259</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1542363874538893</v>
@@ -974,7 +974,7 @@
         <v>-0.1811486750032768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2516336619370471</v>
+        <v>-0.2516336619370472</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1447088916773583</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07224406468766009</v>
+        <v>-0.06363258280764655</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.124603660655649</v>
+        <v>-0.1350787742181013</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6444285561282925</v>
+        <v>-0.6364084560247774</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.004921058817305078</v>
+        <v>0.01078687347984944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3095073141349638</v>
+        <v>-0.307811089818463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3744443033895136</v>
+        <v>-0.3782423483347702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01283443288836041</v>
+        <v>0.03118284945952655</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1833579446099936</v>
+        <v>-0.1850749349656427</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4173039629628068</v>
+        <v>-0.4267253629629659</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3459852151033598</v>
+        <v>0.3411677845807723</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3218788915587064</v>
+        <v>0.294642564441107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1982232157507606</v>
+        <v>-0.225511524095591</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3358321135159404</v>
+        <v>0.3534724917869268</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03480336377150658</v>
+        <v>-0.04320699974780349</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.08267021080470446</v>
+        <v>-0.08946678194499166</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2790009534118261</v>
+        <v>0.2868982917947377</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05008003347311418</v>
+        <v>0.05527406032340249</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1654947563626597</v>
+        <v>-0.1718675534700671</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-10.81367060751854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-11.21236156167289</v>
+        <v>-11.21236156167288</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.310743564204379</v>
@@ -1083,7 +1083,7 @@
         <v>-13.35109579687737</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-13.31948412135909</v>
+        <v>-13.31948412135908</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.262231911521697</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1853222613618376</v>
+        <v>0.2736342934936546</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.9665567545153</v>
+        <v>-15.64950599662277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.42172693650926</v>
+        <v>-16.36113757404877</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07739041742325475</v>
+        <v>0.315343460803464</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-18.59821813105132</v>
+        <v>-18.51771432670414</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-18.03818357703609</v>
+        <v>-18.27005269995716</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.270025825452724</v>
+        <v>1.471205509996856</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-16.31404199442656</v>
+        <v>-15.90443237506708</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-16.33473703365328</v>
+        <v>-16.03804027151363</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.94113069081988</v>
+        <v>10.82800300678834</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.999006666260842</v>
+        <v>-6.119378411462194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.810225633172785</v>
+        <v>-5.780554955086425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.79223493138207</v>
+        <v>11.32234727056582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.846565108669751</v>
+        <v>-8.071524563638338</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-7.821976530352526</v>
+        <v>-8.221205738700627</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.775582612827456</v>
+        <v>8.878785449009683</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-8.950690566886115</v>
+        <v>-8.263337136516579</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.652218582875424</v>
+        <v>-8.765206490610131</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3380112648781251</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3504734563578139</v>
+        <v>-0.3504734563578137</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1145216783415512</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2879050513120171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2872233723546781</v>
+        <v>-0.2872233723546779</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1333436261514522</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3147268054158641</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3174253614494417</v>
+        <v>-0.3174253614494418</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.005042513196546685</v>
+        <v>0.007404312305334441</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4625029656479172</v>
+        <v>-0.4471597987951818</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4780433977461964</v>
+        <v>-0.4699549490498858</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.003553487893146976</v>
+        <v>0.006969357974902447</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3780396586650905</v>
+        <v>-0.3816108894485526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3743748773278348</v>
+        <v>-0.3753178655201946</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03107685857289451</v>
+        <v>0.03584670919270581</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.392503473579985</v>
+        <v>-0.3856395885210736</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3914485734998037</v>
+        <v>-0.3876003028015539</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.373479249940304</v>
+        <v>0.3748454555619183</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1973886769597665</v>
+        <v>-0.2076443666302626</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1932211112564464</v>
+        <v>-0.1945530397121986</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2517125192477615</v>
+        <v>0.2566718024873618</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1735249262438791</v>
+        <v>-0.1848798611255027</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1867955461249661</v>
+        <v>-0.1853543461340278</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2332723996544225</v>
+        <v>0.2370519385288901</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2375090609216149</v>
+        <v>-0.2215443804780972</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2313858761748484</v>
+        <v>-0.2371822804690091</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-8.857541015439738</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-5.959820428476595</v>
+        <v>-5.959820428476598</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.433459490876567</v>
@@ -1297,7 +1297,7 @@
         <v>-10.53607199600013</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-8.036786331596154</v>
+        <v>-8.03678633159616</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.375941151905615</v>
@@ -1306,7 +1306,7 @@
         <v>-9.690186905161932</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.917109527223076</v>
+        <v>-6.917109527223072</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.583676735978362</v>
+        <v>-2.57527444362385</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.75477165347229</v>
+        <v>-14.04077110509908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.35681132242153</v>
+        <v>-10.51368251706909</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.551564076073643</v>
+        <v>-2.568499888558157</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.85821703927821</v>
+        <v>-15.82659478711565</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.2710316745362</v>
+        <v>-13.00577701039449</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4462706678416308</v>
+        <v>-0.5439010371487299</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-13.43770462955705</v>
+        <v>-12.99212933410013</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-10.38916163374739</v>
+        <v>-10.28588335080251</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.752962685705686</v>
+        <v>8.670848874070389</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.782656783513316</v>
+        <v>-4.255730051602984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.000219371332207</v>
+        <v>-0.2270008579096265</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.164468456858117</v>
+        <v>9.291878729696462</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.601088448290063</v>
+        <v>-4.716192579369238</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.471827753219224</v>
+        <v>-3.301159746222285</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.305505473440804</v>
+        <v>7.380185847847222</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-6.085265265899213</v>
+        <v>-5.967592566904734</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.310648950585256</v>
+        <v>-3.395442616526605</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3566950157623899</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.240003206078401</v>
+        <v>-0.2400032060784011</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1051917854257993</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3227963596422295</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2462250990735955</v>
+        <v>-0.2462250990735957</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1175086919061164</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3372929610780113</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2407685607483136</v>
+        <v>-0.2407685607483135</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09393668736735392</v>
+        <v>-0.09107357293180414</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4958653409017296</v>
+        <v>-0.5017899939603193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4036833343295618</v>
+        <v>-0.3889302447963191</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07454618908222037</v>
+        <v>-0.07296240131307173</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4397397611308513</v>
+        <v>-0.4406293975346303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3602238279143515</v>
+        <v>-0.3564718239779963</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01567891501101232</v>
+        <v>-0.01951903167263945</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4319654840430829</v>
+        <v>-0.423587512089926</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3369198235697335</v>
+        <v>-0.3308164727532484</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3971930400505977</v>
+        <v>0.4057380928523708</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1705440573339989</v>
+        <v>-0.1887632613550922</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04590617668158498</v>
+        <v>-0.0139093193014667</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3055103330249005</v>
+        <v>0.3096254834051577</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1775031556086883</v>
+        <v>-0.1586539330472122</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1129753042946399</v>
+        <v>-0.1226894710265083</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2712363646197705</v>
+        <v>0.2795056471385159</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2240520603290501</v>
+        <v>-0.2189396981048516</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1253998638993804</v>
+        <v>-0.1262768461469429</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.155005100367251</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-9.127005948707549</v>
+        <v>-9.127005948707545</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.768293776284632</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.991065545116979</v>
+        <v>-7.594813183739565</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.78282171472788</v>
+        <v>-12.64576023834407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.99575055208278</v>
+        <v>-17.27040708382574</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.430402400272079</v>
+        <v>-8.37360971773875</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.61111423047685</v>
+        <v>-12.73899651658072</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-14.62087232078482</v>
+        <v>-14.37531655939178</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.463100896326396</v>
+        <v>-5.967315291312788</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-11.02446502020105</v>
+        <v>-11.16404505293426</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.68439004988766</v>
+        <v>-14.3707657919584</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.808842664681027</v>
+        <v>4.725297793351778</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.837446408813039</v>
+        <v>-1.711716896269638</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.0670998981993</v>
+        <v>-7.2397476366727</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.708913717344994</v>
+        <v>3.915631266150319</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.257541081166887</v>
+        <v>-1.191551638410281</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.48913888327047</v>
+        <v>-4.042645365902533</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.83707572736478</v>
+        <v>2.361538330879803</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.021792161376769</v>
+        <v>-3.433011197812309</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-7.488977621806564</v>
+        <v>-7.004236933374952</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2751530734318043</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3509883924315221</v>
+        <v>-0.350988392431522</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.07154557400138029</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2853202611816195</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.4271639952245022</v>
+        <v>-0.427163995224502</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.300111059788584</v>
+        <v>-0.2901936737167188</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4770786215108378</v>
+        <v>-0.4774914602907533</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6365146765783267</v>
+        <v>-0.6366437678075144</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2832818032352183</v>
+        <v>-0.281065483134243</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4389083364200808</v>
+        <v>-0.4352816597926409</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4858768899847562</v>
+        <v>-0.4885143416340344</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.204225740646249</v>
+        <v>-0.2263353357325501</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4076334848321719</v>
+        <v>-0.4179609717733643</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5300793210767009</v>
+        <v>-0.5261716609174854</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1956372075330392</v>
+        <v>0.2406279821503562</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08665645380200276</v>
+        <v>-0.08038604328308425</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3434733544097231</v>
+        <v>-0.3502851174664044</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1625380673209755</v>
+        <v>0.1722553715184323</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05453414049789048</v>
+        <v>-0.04398352987974201</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1918218447274752</v>
+        <v>-0.1881456281923627</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1283971613272442</v>
+        <v>0.1041119739719051</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1291526988391788</v>
+        <v>-0.153533602791844</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3272901958860321</v>
+        <v>-0.317026916324698</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.98618071323543</v>
+        <v>-12.17684163005151</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-14.71745878192141</v>
+        <v>-14.32079920463374</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.74799443261319</v>
+        <v>-17.73215523561058</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-10.53601131405297</v>
+        <v>-10.07829007624576</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-15.9204716560999</v>
+        <v>-15.74625750699121</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-18.64185443220436</v>
+        <v>-19.04839640022032</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-9.060724044971586</v>
+        <v>-9.018461573494982</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.46432961022598</v>
+        <v>-13.24541818781431</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-16.57251989047947</v>
+        <v>-16.60221633765753</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.599774790899034</v>
+        <v>2.189118704690912</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-1.565529216944505</v>
+        <v>-1.191387232783331</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-6.757623189282288</v>
+        <v>-6.14433541008677</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.785667367506222</v>
+        <v>2.545640794773323</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-4.004239824777589</v>
+        <v>-4.170087697972572</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-8.44695082377566</v>
+        <v>-8.922737312972814</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.09082309020738705</v>
+        <v>0.1134636367109547</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.684132931292877</v>
+        <v>-4.37675958498269</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-9.275275314986677</v>
+        <v>-9.0547934367133</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.3169925513160563</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4772310451646051</v>
+        <v>-0.477231045164605</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1575024543677594</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4243069275277645</v>
+        <v>-0.4104340904290381</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5227782127259474</v>
+        <v>-0.5037166398470545</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6113425997283897</v>
+        <v>-0.6037054029098629</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3662087256965408</v>
+        <v>-0.354834181717629</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.55360846163316</v>
+        <v>-0.5568136950981165</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6456987808039557</v>
+        <v>-0.6447484910788834</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3344910986688406</v>
+        <v>-0.3290998098497016</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4775464670538948</v>
+        <v>-0.4817479549985799</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6051105386536572</v>
+        <v>-0.6043314037228316</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.06355513806180195</v>
+        <v>0.1052779121648162</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.06734838781030175</v>
+        <v>-0.04709340551015059</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3089988749448034</v>
+        <v>-0.277991493404486</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.07611865191800291</v>
+        <v>0.1297890596249171</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1718008797986232</v>
+        <v>-0.1701714054834592</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.3825381698425352</v>
+        <v>-0.4044266692354532</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.00442285966892237</v>
+        <v>0.007451054457112311</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1927393836445755</v>
+        <v>-0.1931277339621035</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.4107440187016483</v>
+        <v>-0.4049045019294535</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-3.704474076342402</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-8.590949589854301</v>
+        <v>-8.590949589854302</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.76535767326388</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-13.94854057172717</v>
+        <v>-14.02606507076985</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-16.51909496452254</v>
+        <v>-16.22751857821047</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.29435532975505</v>
+        <v>-17.12394916696863</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.772351036701108</v>
+        <v>-5.908690753413288</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.197396715696767</v>
+        <v>-9.098552063495029</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-13.43825096635331</v>
+        <v>-13.26904668887275</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.210000185208044</v>
+        <v>-7.062789896636009</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.32597546510322</v>
+        <v>-10.55377073321682</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-13.54391742060228</v>
+        <v>-13.22140872416008</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.872034437117974</v>
+        <v>1.479325767807021</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.723121864579693</v>
+        <v>-2.547433181416572</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.035441480982625</v>
+        <v>-3.509132266871431</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.295222148192501</v>
+        <v>4.796555342709556</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.228632482474172</v>
+        <v>1.954851104356913</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.340646995110475</v>
+        <v>-4.660069565728702</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.674148294564539</v>
+        <v>2.097625032639651</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.592407759120199</v>
+        <v>-1.302869081522268</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-5.824565753492488</v>
+        <v>-5.600025859403553</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.400213192341652</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4380114358651044</v>
+        <v>-0.4380114358651045</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.03402677477992892</v>
@@ -2044,7 +2044,7 @@
         <v>-0.2428829737487429</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.5632635944289148</v>
+        <v>-0.5632635944289149</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1495145344054868</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5080323817814272</v>
+        <v>-0.516341248265146</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5879220471412875</v>
+        <v>-0.5804505117378571</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6011524709015438</v>
+        <v>-0.6049188976505849</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3187458249105232</v>
+        <v>-0.3225830035183084</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4982020679739737</v>
+        <v>-0.5144599279538891</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7032247354205214</v>
+        <v>-0.6961495666787856</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3488086223423815</v>
+        <v>-0.3429117096854143</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4976319952829033</v>
+        <v>-0.5054859108149393</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.6210060741645699</v>
+        <v>-0.6183743443990811</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1027514032639613</v>
+        <v>0.08310985542869902</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1382111152918634</v>
+        <v>-0.1229802998272834</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2016617341935341</v>
+        <v>-0.1767327253895786</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.439977285391819</v>
+        <v>0.3768113450696855</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2020253633855833</v>
+        <v>0.1377659897906358</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3479240019032242</v>
+        <v>-0.357479915081214</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.09461866023535567</v>
+        <v>0.1364862636847546</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1086379462279002</v>
+        <v>-0.08526455531493203</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3618019442779186</v>
+        <v>-0.3500334425069142</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-5.239783882023633</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-8.605650332519238</v>
+        <v>-8.605650332519236</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.143695038507282</v>
@@ -2153,7 +2153,7 @@
         <v>-7.899630634738338</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-10.76377407342419</v>
+        <v>-10.7637740734242</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.055146431753119</v>
@@ -2162,7 +2162,7 @@
         <v>-6.580875152014934</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-9.671843462853328</v>
+        <v>-9.67184346285333</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.1907652989217352</v>
+        <v>-0.1813677613413658</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-7.046763902112374</v>
+        <v>-7.350248310143476</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-10.56238757252236</v>
+        <v>-10.84955716914548</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.06024259636609489</v>
+        <v>-0.1505200766474334</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-9.975206331345602</v>
+        <v>-10.00486907565151</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-12.94694011337094</v>
+        <v>-12.81125183458487</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.4185382678529517</v>
+        <v>0.5101447590782072</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.04531705781347</v>
+        <v>-8.060103849733141</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-11.07032498464319</v>
+        <v>-11.03392168134888</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.070202441957654</v>
+        <v>3.776421256318833</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-3.172833815235784</v>
+        <v>-3.211945274047613</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-6.610392034599736</v>
+        <v>-6.58663838470214</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.386860129940164</v>
+        <v>4.396962193530018</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-5.639980130540249</v>
+        <v>-5.701017916555434</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-8.956229171600819</v>
+        <v>-8.941113279477147</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.473194847356608</v>
+        <v>3.560074723462497</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-5.135176157844967</v>
+        <v>-5.183448480260111</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-8.283342519777188</v>
+        <v>-8.330145055819914</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2239181500534156</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3677558742594678</v>
+        <v>-0.3677558742594677</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.06942464991713598</v>
@@ -2258,7 +2258,7 @@
         <v>-0.2558335404243317</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3485902767937395</v>
+        <v>-0.3485902767937396</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.07555348922502036</v>
@@ -2267,7 +2267,7 @@
         <v>-0.241933164570092</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.3555666445789082</v>
+        <v>-0.3555666445789083</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.008104090387582606</v>
+        <v>-0.007653809561603548</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2908033279172575</v>
+        <v>-0.3015856691156893</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4328184173305876</v>
+        <v>-0.4399760393167013</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.002217375695325636</v>
+        <v>-0.005184462919379264</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3138319308360457</v>
+        <v>-0.3121680177456845</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3998881674936871</v>
+        <v>-0.4022922861674542</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01514292247010616</v>
+        <v>0.01826599622147599</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2848657320324597</v>
+        <v>-0.2898901589079621</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3944843544627303</v>
+        <v>-0.3946828895311053</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1791222426129988</v>
+        <v>0.1705493250841539</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1434566779680402</v>
+        <v>-0.1426697800720368</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.2935368690641679</v>
+        <v>-0.2935896028618966</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1475527122746902</v>
+        <v>0.1471053879101016</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.192887854767532</v>
+        <v>-0.193441787963216</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2980275260834921</v>
+        <v>-0.2996307404139243</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1314324712744034</v>
+        <v>0.1356779742364959</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1916753838221222</v>
+        <v>-0.1955810954190857</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.3130374802176336</v>
+        <v>-0.3123449798004228</v>
       </c>
     </row>
     <row r="52">
